--- a/biology/Botanique/Citrus_hindsii/Citrus_hindsii.xlsx
+++ b/biology/Botanique/Citrus_hindsii/Citrus_hindsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus hindsii, le Kumquat de Hong Kong ou Kumquat Sauvage, est une espèce de kumquats, famille des Rutaceae. Elle produit de petits fruits ronds, comestibles, de la taille d'un pois. Les fruits sont de couleur orange vif à maturité. Dans les régions les plus chaudes, il est cultivé dans les jardins comme plante ornementale. Il est également utilisé comme plante d'intérieur et comme bonsaï. Les branches sont très épineuses.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fortunella hindsii (Champ. ex Benth.) Swingle
 Sclerostylis hindsii Champ. ex Benth.
